--- a/import_radio.xlsx
+++ b/import_radio.xlsx
@@ -547,11 +547,11 @@
   </sheetPr>
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K66" activeCellId="0" sqref="K66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.83"/>
@@ -597,7 +597,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>1597</v>
+        <v>1601</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>1598</v>
+        <v>1602</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>1600</v>
+        <v>1604</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>1601</v>
+        <v>1605</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>25</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>30</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>1605</v>
+        <v>1609</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>1606</v>
+        <v>1610</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>33</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>1607</v>
+        <v>1611</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>35</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>37</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>40</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>1611</v>
+        <v>1615</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>42</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>44</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>1613</v>
+        <v>1617</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>46</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>47</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>49</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>1616</v>
+        <v>1620</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>50</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>1617</v>
+        <v>1621</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>51</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>1618</v>
+        <v>1622</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>53</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>1619</v>
+        <v>1623</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>54</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>1620</v>
+        <v>1624</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>55</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>1621</v>
+        <v>1625</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>57</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>1622</v>
+        <v>1626</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>58</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>1623</v>
+        <v>1627</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>59</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>1624</v>
+        <v>1628</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>60</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>60</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>1624</v>
+        <v>1630</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>60</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>64</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>1628</v>
+        <v>1632</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>66</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>1629</v>
+        <v>1633</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>68</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>1630</v>
+        <v>1634</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>70</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>1631</v>
+        <v>1635</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>71</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>1632</v>
+        <v>1636</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>72</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>1633</v>
+        <v>1637</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>73</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>1634</v>
+        <v>1638</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>75</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>1635</v>
+        <v>1639</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>76</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>1636</v>
+        <v>1640</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>78</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>1637</v>
+        <v>1641</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>80</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>82</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>1639</v>
+        <v>1643</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>84</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>84</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>1641</v>
+        <v>1645</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>87</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>1642</v>
+        <v>1646</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>89</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>90</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>1644</v>
+        <v>1648</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>91</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>93</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>1646</v>
+        <v>1650</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>96</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>98</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>1648</v>
+        <v>1652</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>102</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>1649</v>
+        <v>1653</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>104</v>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>1650</v>
+        <v>1654</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>106</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>107</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>1652</v>
+        <v>1656</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>109</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>109</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>109</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>1652</v>
+        <v>1659</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>109</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>1656</v>
+        <v>1660</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>112</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>114</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>116</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>1659</v>
+        <v>1663</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>118</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>1659</v>
+        <v>1664</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>118</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>1659</v>
+        <v>1665</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>118</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>1662</v>
+        <v>1666</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>122</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>1662</v>
+        <v>1667</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>122</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>125</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>127</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>1666</v>
+        <v>1670</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>128</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>1666</v>
+        <v>1671</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>128</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>1668</v>
+        <v>1672</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>131</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>133</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>133</v>

--- a/import_radio.xlsx
+++ b/import_radio.xlsx
@@ -547,11 +547,11 @@
   </sheetPr>
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K66" activeCellId="0" sqref="K66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.83"/>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>60</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>60</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>84</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>109</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>109</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>109</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>118</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>118</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>122</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>128</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>133</v>

--- a/import_radio.xlsx
+++ b/import_radio.xlsx
@@ -52,36 +52,339 @@
     <t xml:space="preserve">lab_display</t>
   </si>
   <si>
+    <t xml:space="preserve">A-59065-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MED 1 2717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-59564-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsealed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 0 0229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 0 0219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-58836-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC G0 537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-211208-78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH J0 511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-211209-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH C1 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-215404-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-215406-94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH D1 365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-215407-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-215408-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57710-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH J0 551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57712-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57713-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57716-95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH J0 540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57717-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57718-89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57719-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-60311-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sealed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSP 2 252.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSP 2 253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSP 2 252.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-216114-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCH 1 1108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57614-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCH 2 2117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57615-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCH 2 2118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57616-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57617-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57618-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-58733-51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I17 0 I2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-58734-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-58737-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I17 -1 I2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-210304-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR B0 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57825-59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH C3 424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-59729-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH C1 426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-59618-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH F0 608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH F0 607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57613-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXG 2 212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-215395-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-58736-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-191701-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXG 1 121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-189821-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particle accelerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSP 1 128.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-61006-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH L0 528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSI-02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuclear reactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH L0 525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-59257-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCH 3 3230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-214086-77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH H0 624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-214289-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-59256-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MED 1 2520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-60384-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS 1 181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH G0 93.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-59221-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MXC 2 213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-215598-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC B4 202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-210651-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALP 2 811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-60300-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPH -1 924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPH -1 935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCV 045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-60930-56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCV 0 045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPH 0 074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57290-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE 0 330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-57291-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-60101-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE 0 0432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PH C1 383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-59640-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV 1 1725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-210305-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI 3 3248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV 3 3843</t>
+  </si>
+  <si>
     <t xml:space="preserve">A-217190-77</t>
   </si>
   <si>
-    <t xml:space="preserve">Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-rays</t>
-  </si>
-  <si>
     <t xml:space="preserve">MC B2 121</t>
   </si>
   <si>
     <t xml:space="preserve">A-60729-77</t>
   </si>
   <si>
-    <t xml:space="preserve">Sealed</t>
-  </si>
-  <si>
     <t xml:space="preserve">MC A3 193</t>
   </si>
   <si>
     <t xml:space="preserve">A-210306-68</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsealed</t>
-  </si>
-  <si>
     <t xml:space="preserve">AI 0 0246.1</t>
   </si>
   <si>
@@ -125,309 +428,6 @@
   </si>
   <si>
     <t xml:space="preserve">MED 0 2318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-59065-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MED 1 2717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-59564-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI 0 0229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI 0 0219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-58836-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GC G0 537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-211208-78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH J0 511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-211209-75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH C1 401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-215404-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-215406-94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH D1 365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-215407-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-215408-88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57710-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH J0 551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57712-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57713-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57716-95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH J0 540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57717-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57718-89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57719-86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-60311-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSP 2 252.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSP 2 253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSP 2 252.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-216114-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCH 1 1108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57614-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCH 2 2117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57615-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCH 2 2118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57616-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57617-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57618-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-58733-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I17 0 I2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-58734-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-58737-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I17 -1 I2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-210304-74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR B0 400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57825-59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH C3 424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-59729-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH C1 426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-59618-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH F0 608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH F0 607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57613-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXG 2 212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-215395-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-58736-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-191701-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXG 1 121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-189821-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particle accelerator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSP 1 128.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-61006-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH L0 528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENSI-02/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFSN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear reactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH L0 525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-59257-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCH 3 3230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-214086-77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH H0 624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-214289-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-59256-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MED 1 2520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-60384-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS 1 181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH G0 93.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-59221-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MXC 2 213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-215598-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC B4 202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-210651-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALP 2 811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-60300-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPH -1 924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPH -1 935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCV 045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-60930-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCV 0 045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPH 0 074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57290-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE 0 330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-57291-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-60101-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE 0 0432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PH C1 383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-59640-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV 1 1725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A-210305-71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI 3 3248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SV 3 3843</t>
   </si>
 </sst>
 </file>
@@ -547,11 +547,11 @@
   </sheetPr>
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.83"/>
@@ -597,19 +597,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1600</v>
+        <v>1611</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>564</v>
+        <v>412</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>45496</v>
+        <v>43257</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>49148</v>
+        <v>47275</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>305651</v>
+        <v>270443</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>13</v>
@@ -629,19 +629,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>1601</v>
+        <v>1612</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>43164</v>
+        <v>43944</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>46817</v>
+        <v>47596</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -650,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>357533</v>
+        <v>175940</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>16</v>
@@ -661,19 +661,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>1602</v>
+        <v>1612</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>44848</v>
+        <v>43944</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>48501</v>
+        <v>47596</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
@@ -685,27 +685,27 @@
         <v>175940</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>1603</v>
+        <v>1614</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>42982</v>
+        <v>42961</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>46634</v>
+        <v>46613</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -714,30 +714,30 @@
         <v>12</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>175940</v>
+        <v>186303</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>1604</v>
+        <v>1615</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>40738</v>
+        <v>45002</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>47596</v>
+        <v>48655</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -746,30 +746,30 @@
         <v>12</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>175940</v>
+        <v>161833</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>1605</v>
+        <v>1616</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>357</v>
+        <v>481</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>43677</v>
+        <v>45002</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>47330</v>
+        <v>48655</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -778,30 +778,30 @@
         <v>12</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>166505</v>
+        <v>161833</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>1606</v>
+        <v>1617</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>44848</v>
+        <v>45359</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>48501</v>
+        <v>49011</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -810,30 +810,30 @@
         <v>12</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>271639</v>
+        <v>161833</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>1607</v>
+        <v>1618</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>45379</v>
+        <v>45359</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>49031</v>
+        <v>49011</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
@@ -842,30 +842,30 @@
         <v>12</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>271639</v>
+        <v>161833</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>1608</v>
+        <v>1619</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>45406</v>
+        <v>45359</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>49058</v>
+        <v>49011</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -874,30 +874,30 @@
         <v>12</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>271639</v>
+        <v>161833</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>1609</v>
+        <v>1620</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>40</v>
+        <v>481</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>43229</v>
+        <v>45359</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>46882</v>
+        <v>49011</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
@@ -906,30 +906,30 @@
         <v>12</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>168011</v>
+        <v>161833</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>1610</v>
+        <v>1621</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>45313</v>
+        <v>41743</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>48966</v>
+        <v>49048</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
@@ -938,30 +938,30 @@
         <v>12</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>278363</v>
+        <v>161833</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>1611</v>
+        <v>1622</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>43257</v>
+        <v>41743</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>47275</v>
+        <v>49058</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
@@ -970,30 +970,30 @@
         <v>12</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>270443</v>
+        <v>161833</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>1612</v>
+        <v>1623</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>43944</v>
+        <v>41743</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>47596</v>
+        <v>49049</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -1002,30 +1002,30 @@
         <v>12</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>175940</v>
+        <v>161833</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>1612</v>
+        <v>1624</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>444</v>
+        <v>481</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>43944</v>
+        <v>41743</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>47596</v>
+        <v>49048</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -1034,30 +1034,30 @@
         <v>12</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>175940</v>
+        <v>161833</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>1614</v>
+        <v>1625</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>185</v>
+        <v>481</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>42961</v>
+        <v>41743</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>46613</v>
+        <v>49048</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -1066,30 +1066,30 @@
         <v>12</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>186303</v>
+        <v>161833</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>1615</v>
+        <v>1626</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>481</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>45002</v>
+        <v>41743</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>48655</v>
+        <v>49025</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -1104,24 +1104,24 @@
         <v>13</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>1616</v>
+        <v>1627</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>481</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>45002</v>
+        <v>41743</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>48655</v>
+        <v>49048</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -1136,24 +1136,24 @@
         <v>13</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>1617</v>
+        <v>1628</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>45359</v>
+        <v>42530</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>49011</v>
+        <v>49128</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -1162,30 +1162,30 @@
         <v>12</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>161833</v>
+        <v>161435</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>1618</v>
+        <v>1628</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>45359</v>
+        <v>42530</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>49011</v>
+        <v>49128</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -1194,30 +1194,30 @@
         <v>12</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>161833</v>
+        <v>161435</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>1619</v>
+        <v>1628</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>45359</v>
+        <v>42530</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>49011</v>
+        <v>49128</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -1226,30 +1226,30 @@
         <v>12</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>161833</v>
+        <v>161435</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>1620</v>
+        <v>1631</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>45359</v>
+        <v>45631</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>49011</v>
+        <v>49283</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -1258,30 +1258,30 @@
         <v>12</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>161833</v>
+        <v>271639</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>1621</v>
+        <v>1632</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>41743</v>
+        <v>44230</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>49048</v>
+        <v>48527</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -1290,30 +1290,30 @@
         <v>12</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>161833</v>
+        <v>271639</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>1622</v>
+        <v>1633</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>41743</v>
+        <v>44230</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>49058</v>
+        <v>48527</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1322,30 +1322,30 @@
         <v>12</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>161833</v>
+        <v>271639</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>1623</v>
+        <v>1634</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>41743</v>
+        <v>44230</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>49049</v>
+        <v>48527</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1354,30 +1354,30 @@
         <v>12</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>161833</v>
+        <v>271639</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>1624</v>
+        <v>1635</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>41743</v>
+        <v>44230</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>49048</v>
+        <v>48527</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -1386,30 +1386,30 @@
         <v>12</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>161833</v>
+        <v>271639</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>41743</v>
+        <v>44230</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>49048</v>
+        <v>48527</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
@@ -1418,30 +1418,30 @@
         <v>12</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>161833</v>
+        <v>271639</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>1626</v>
+        <v>1637</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>41743</v>
+        <v>43944</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>49025</v>
+        <v>46151</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1450,30 +1450,30 @@
         <v>12</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>161833</v>
+        <v>271639</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>1627</v>
+        <v>1638</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>41743</v>
+        <v>44237</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>49048</v>
+        <v>46151</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>11</v>
@@ -1482,30 +1482,30 @@
         <v>12</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>161833</v>
+        <v>271639</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>1628</v>
+        <v>1639</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>42530</v>
+        <v>43944</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>49128</v>
+        <v>46151</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>11</v>
@@ -1514,30 +1514,30 @@
         <v>12</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>161435</v>
+        <v>271639</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>1628</v>
+        <v>1640</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>488</v>
+        <v>437</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>42530</v>
+        <v>44848</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>49128</v>
+        <v>48501</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>11</v>
@@ -1546,30 +1546,30 @@
         <v>12</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>161435</v>
+        <v>270443</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>1628</v>
+        <v>1641</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>488</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>42530</v>
+        <v>41295</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>49128</v>
+        <v>48527</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>11</v>
@@ -1578,30 +1578,30 @@
         <v>12</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>161435</v>
+        <v>104706</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>1631</v>
+        <v>1642</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>502</v>
+        <v>103</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>45631</v>
+        <v>43677</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>49283</v>
+        <v>49126</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>11</v>
@@ -1610,30 +1610,30 @@
         <v>12</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>271639</v>
+        <v>166619</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>1632</v>
+        <v>1643</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>44230</v>
+        <v>43846</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>48527</v>
+        <v>46301</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>11</v>
@@ -1642,30 +1642,30 @@
         <v>12</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>271639</v>
+        <v>154526</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>44230</v>
+        <v>43846</v>
       </c>
       <c r="E35" s="3" t="n">
-        <v>48527</v>
+        <v>46301</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>11</v>
@@ -1674,30 +1674,30 @@
         <v>12</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>271639</v>
+        <v>154526</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>1634</v>
+        <v>1645</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>502</v>
+        <v>209</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>44230</v>
+        <v>42992</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>48527</v>
+        <v>48491</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>11</v>
@@ -1706,30 +1706,30 @@
         <v>12</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>271639</v>
+        <v>156608</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>1635</v>
+        <v>1646</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>502</v>
+        <v>158</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>44230</v>
+        <v>45359</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>48527</v>
+        <v>49011</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>11</v>
@@ -1744,24 +1744,24 @@
         <v>13</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>1636</v>
+        <v>1647</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>502</v>
+        <v>158</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>44230</v>
+        <v>43944</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>48527</v>
+        <v>46151</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>11</v>
@@ -1776,24 +1776,24 @@
         <v>13</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>1637</v>
+        <v>1648</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>503</v>
+        <v>339</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>43944</v>
+        <v>44442</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>46151</v>
+        <v>48063</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>11</v>
@@ -1802,62 +1802,62 @@
         <v>12</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>271639</v>
+        <v>137694</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>1638</v>
+        <v>1649</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>488</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>44393</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>48044</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>161435</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>503</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>44237</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>46151</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>271639</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>1639</v>
+        <v>1650</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>503</v>
+        <v>84</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>43944</v>
+        <v>43677</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>46151</v>
+        <v>45994</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>11</v>
@@ -1866,10 +1866,10 @@
         <v>12</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>271639</v>
+        <v>251480</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>77</v>
@@ -1877,51 +1877,51 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>1640</v>
+        <v>1651</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>437</v>
+        <v>84</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>44848</v>
+        <v>42921</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>48501</v>
+        <v>46539</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>270443</v>
+        <v>251480</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>1641</v>
+        <v>1652</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>41295</v>
+        <v>44237</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>48527</v>
+        <v>47889</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>11</v>
@@ -1929,31 +1929,29 @@
       <c r="G43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>104706</v>
-      </c>
+      <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>1642</v>
+        <v>1653</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>43677</v>
+        <v>45225</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>49126</v>
+        <v>48878</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>11</v>
@@ -1961,31 +1959,29 @@
       <c r="G44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>166619</v>
-      </c>
+      <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>1643</v>
+        <v>1654</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>529</v>
+        <v>58</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>43846</v>
+        <v>45233</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>46301</v>
+        <v>48886</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>11</v>
@@ -1993,11 +1989,9 @@
       <c r="G45" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>154526</v>
-      </c>
+      <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>85</v>
@@ -2005,19 +1999,19 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>1643</v>
+        <v>1655</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>529</v>
+        <v>313</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>43846</v>
+        <v>44237</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>46301</v>
+        <v>47889</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>11</v>
@@ -2026,30 +2020,30 @@
         <v>12</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>154526</v>
+        <v>270443</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>1645</v>
+        <v>1656</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>209</v>
+        <v>529</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>42992</v>
+        <v>43846</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>48491</v>
+        <v>46301</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>11</v>
@@ -2058,30 +2052,30 @@
         <v>12</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>156608</v>
+        <v>154526</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>1646</v>
+        <v>1656</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>158</v>
+        <v>529</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>45359</v>
+        <v>43846</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>49011</v>
+        <v>46301</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>11</v>
@@ -2090,126 +2084,126 @@
         <v>12</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>271639</v>
+        <v>154526</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>1647</v>
+        <v>1656</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>529</v>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>43846</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>46301</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>154526</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>158</v>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>43944</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>46151</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>271639</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>1648</v>
+        <v>1656</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>529</v>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>43846</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>46301</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>154526</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>339</v>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>44442</v>
-      </c>
-      <c r="E50" s="3" t="n">
-        <v>48063</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>137694</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>1649</v>
+        <v>1660</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>47757</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>105869</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>488</v>
-      </c>
-      <c r="D51" s="3" t="n">
-        <v>44393</v>
-      </c>
-      <c r="E51" s="3" t="n">
-        <v>48044</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>161435</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
-        <v>1650</v>
+        <v>1661</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>84</v>
+        <v>505</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>43677</v>
+        <v>45364</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>45994</v>
+        <v>49016</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>11</v>
@@ -2218,62 +2212,62 @@
         <v>12</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>251480</v>
+        <v>305651</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
-        <v>1651</v>
+        <v>1662</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>84</v>
+        <v>535</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>42921</v>
+        <v>44897</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>46539</v>
+        <v>48550</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>251480</v>
+        <v>271639</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
-        <v>1652</v>
+        <v>1663</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>44237</v>
+        <v>41102</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>47889</v>
+        <v>48000</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>11</v>
@@ -2281,29 +2275,31 @@
       <c r="G54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2" t="n">
+        <v>162127</v>
+      </c>
       <c r="I54" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
-        <v>1653</v>
+        <v>1663</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>45225</v>
+        <v>41102</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>48878</v>
+        <v>48000</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>11</v>
@@ -2311,29 +2307,31 @@
       <c r="G55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2" t="n">
+        <v>162127</v>
+      </c>
       <c r="I55" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>1654</v>
+        <v>1663</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>45233</v>
+        <v>41102</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>48886</v>
+        <v>48000</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>11</v>
@@ -2341,29 +2339,31 @@
       <c r="G56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2" t="n">
+        <v>162127</v>
+      </c>
       <c r="I56" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>1655</v>
+        <v>1666</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>313</v>
+        <v>146</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>44237</v>
+        <v>43677</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>47889</v>
+        <v>49513</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>11</v>
@@ -2372,30 +2372,30 @@
         <v>12</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>270443</v>
+        <v>162127</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
-        <v>1656</v>
+        <v>1666</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>529</v>
+        <v>146</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>43846</v>
+        <v>43677</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>46301</v>
+        <v>49513</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>11</v>
@@ -2404,30 +2404,30 @@
         <v>12</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>154526</v>
+        <v>162127</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
-        <v>1656</v>
+        <v>1668</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>529</v>
+        <v>35</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>43846</v>
+        <v>42985</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>46301</v>
+        <v>46637</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>11</v>
@@ -2436,30 +2436,30 @@
         <v>12</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>154526</v>
+        <v>163344</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
-        <v>1656</v>
+        <v>1669</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>529</v>
+        <v>35</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>43846</v>
+        <v>42985</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>46301</v>
+        <v>46637</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>11</v>
@@ -2468,62 +2468,62 @@
         <v>12</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>154526</v>
+        <v>163344</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
-        <v>1656</v>
+        <v>1670</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>42985</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>46637</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>163344</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>529</v>
-      </c>
-      <c r="D61" s="3" t="n">
-        <v>43846</v>
-      </c>
-      <c r="E61" s="3" t="n">
-        <v>46301</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>154526</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
-        <v>1660</v>
+        <v>1670</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>44105</v>
+        <v>42985</v>
       </c>
       <c r="E62" s="3" t="n">
-        <v>47757</v>
+        <v>46637</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>11</v>
@@ -2532,30 +2532,30 @@
         <v>12</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>105869</v>
+        <v>163344</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
-        <v>1661</v>
+        <v>1672</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>505</v>
+        <v>274</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>45364</v>
+        <v>43677</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>49016</v>
+        <v>47330</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>11</v>
@@ -2564,30 +2564,30 @@
         <v>12</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>305651</v>
+        <v>175940</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
-        <v>1662</v>
+        <v>1673</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>535</v>
+        <v>258</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>44897</v>
+        <v>44848</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>48550</v>
+        <v>48501</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>11</v>
@@ -2596,30 +2596,30 @@
         <v>12</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>271639</v>
+        <v>172709</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
-        <v>1663</v>
+        <v>1673</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>41102</v>
+        <v>44848</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>48000</v>
+        <v>48501</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>11</v>
@@ -2628,30 +2628,30 @@
         <v>12</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>162127</v>
+        <v>172709</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
-        <v>1663</v>
+        <v>1674</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>146</v>
+        <v>564</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>41102</v>
+        <v>45496</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>48000</v>
+        <v>49148</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>11</v>
@@ -2660,30 +2660,30 @@
         <v>12</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>162127</v>
+        <v>305651</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
-        <v>1663</v>
+        <v>1675</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>146</v>
+        <v>378</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>41102</v>
+        <v>43164</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>48000</v>
+        <v>46817</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>11</v>
@@ -2692,30 +2692,30 @@
         <v>12</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>162127</v>
+        <v>357533</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
-        <v>1666</v>
+        <v>1676</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>146</v>
+        <v>439</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>43677</v>
+        <v>44848</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>49513</v>
+        <v>48501</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>11</v>
@@ -2724,30 +2724,30 @@
         <v>12</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>162127</v>
+        <v>175940</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
-        <v>1666</v>
+        <v>1677</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>43677</v>
+        <v>42982</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>49513</v>
+        <v>46634</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>11</v>
@@ -2756,94 +2756,94 @@
         <v>12</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>162127</v>
+        <v>175940</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>1668</v>
+        <v>1678</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>444</v>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>40738</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>47596</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>175940</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D70" s="3" t="n">
-        <v>42985</v>
-      </c>
-      <c r="E70" s="3" t="n">
-        <v>46637</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="2" t="n">
-        <v>163344</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>1669</v>
+        <v>1679</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>43677</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>47330</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>166505</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D71" s="3" t="n">
-        <v>42985</v>
-      </c>
-      <c r="E71" s="3" t="n">
-        <v>46637</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="2" t="n">
-        <v>163344</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
-        <v>1670</v>
+        <v>1680</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>35</v>
+        <v>472</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>42985</v>
+        <v>44848</v>
       </c>
       <c r="E72" s="3" t="n">
-        <v>46637</v>
+        <v>48501</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>11</v>
@@ -2852,10 +2852,10 @@
         <v>12</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>163344</v>
+        <v>271639</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>129</v>
@@ -2863,19 +2863,19 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
-        <v>1670</v>
+        <v>1681</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>35</v>
+        <v>472</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>42985</v>
+        <v>45379</v>
       </c>
       <c r="E73" s="3" t="n">
-        <v>46637</v>
+        <v>49031</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>11</v>
@@ -2884,30 +2884,30 @@
         <v>12</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>163344</v>
+        <v>271639</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
-        <v>1672</v>
+        <v>1682</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>274</v>
+        <v>472</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>43677</v>
+        <v>45406</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>47330</v>
+        <v>49058</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>11</v>
@@ -2916,62 +2916,62 @@
         <v>12</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>175940</v>
+        <v>271639</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>1673</v>
+        <v>1683</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>43229</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>46882</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>168011</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C75" s="2" t="n">
-        <v>258</v>
-      </c>
-      <c r="D75" s="3" t="n">
-        <v>44848</v>
-      </c>
-      <c r="E75" s="3" t="n">
-        <v>48501</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="2" t="n">
-        <v>172709</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>1673</v>
+        <v>1684</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>258</v>
+        <v>433</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>44848</v>
+        <v>45313</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>48501</v>
+        <v>48966</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>11</v>
@@ -2980,10 +2980,10 @@
         <v>12</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>172709</v>
+        <v>278363</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>135</v>
